--- a/data/Map015.xlsx
+++ b/data/Map015.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247B0258-A467-4AB0-9415-1CBFD24B118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>イベント実行</t>
   </si>
@@ -195,22 +200,191 @@
   </si>
   <si>
     <t>グロ</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;How was today's experiment?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Wonderful, Chocolat.
+We're now one step closer to achieving our dream.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;By the way, now that the tiger is a succubus,
+did you have to change her diet at all?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Eh...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;You mustn't do that.
+Those are our valuable human resources.
+You can't just use one as food...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;He's still alive...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;I know!
+If you need fodder in the future, use one of Lily's semen slaves.
+We can let her think that they ran away.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;No more feeding researchers to succubi.
+Understand?</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Mama!
+Today I used the magic gathered from Lily to turn the tiger
+into a succubus. The experiment was a success.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Shower me with praise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Hee hee...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I fed her a researcher.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Oh, ummm...
+He had middle-parted hair, and a big nose. Last I saw, he was
+convulsing, frothing at the mouth, and I saw the whites of his eyes.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;...?
+I got him back. His breathing is spontaneous though.
+Or it was, anyway.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;He's not dead.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I've got him on an IV drip.
+He should be able to speak again in a week or so.
+Maybe.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Yeeeep.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Humm hummm♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I've almost gathered up enough of Lily's magic.
+Soon, I can perform the experiment of my dreams♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;The bathroom.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Magic is water soluble.
+Similar to the way dirt washes off her body,
+metabolised magic falls off in the water.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;And so, I collect the bath water from the drain,
+and place a crystal in it. The magic accumulates over time.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Magic was originally the power of the mind coming
+out of the body. Water is what unites the body and the mind,
+hence why humans are 70% water.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I won't be taking a bath today.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Someone's in a good mood, Chocolat.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Oh my, that's wonderful.
+Fufu♥
+You're just full of curiosity, aren't you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;By the way,
+how exactly do you gather Lily's magic?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;The bathroom?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Oh my.
+What a surprisingly creative method.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;How interesting.
+So it's no wonder people always see ghosts near water.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;It's purely scientific. The spirits of the dead, separated
+from their flesh, melt into the water.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I cooked something.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Here, taste it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Shimeji mushroom, \.flounder, \.popeyed goldfish,\.\.
+all simmered in hydrochloric acid.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Say aaaaah.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Ah, right. Hydrochloric acid melts iron.
+I'll get some copper utensils.
+Copper won't melt.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Oh?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Uuh...!
+(A chemical, fishy odor... It's burnt...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;H-how very creative.\.
+What ingredients did you use?
+(Just seeing it makes me want to vomit...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hydrochloric acid!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Hyaah!
+The spoon is melting!</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;How can you be so smart, and still do this!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;G-ghosts freak me out.
+There's nothing scientific about them.
+...</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Wait, come back! Don't bring another spoon!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,28 +392,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,270 +716,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.28515625" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>